--- a/data/2013-2014/2014_money_spend.xlsx
+++ b/data/2013-2014/2014_money_spend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayleyjellison/Desktop/DataViz/demo/UT-MCB-DATA-PT-07-2019-U-C/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazeldespain/Desktop/TouristData/data/2013-2014/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6102A9C-BBA2-5D42-8CBC-EA42D2DBD687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B556B10-54E4-9145-8C41-992562A7FF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Istanbul</t>
   </si>
@@ -90,16 +90,22 @@
     <t>Munich</t>
   </si>
   <si>
-    <t>bn</t>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t> Overnight International Visitor Spend (US$ bn)  </t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +137,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,292 +452,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE32702-BB2E-4743-880D-27F56FB3016D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1">
-        <v>19.27</v>
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>18.57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>19.27</v>
+      </c>
+      <c r="D2">
+        <v>2013</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+        <v>18.57</v>
+      </c>
+      <c r="D3">
+        <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>14.34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
+        <v>17.02</v>
+      </c>
+      <c r="D4">
+        <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>13.04</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>14.34</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>11.51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
+        <v>13.04</v>
+      </c>
+      <c r="D6">
+        <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>11.51</v>
+      </c>
+      <c r="D7">
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>10.95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+        <v>11.25</v>
+      </c>
+      <c r="D8">
+        <v>2013</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>10.81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>10.95</v>
+      </c>
+      <c r="D9">
+        <v>2013</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>10.81</v>
+      </c>
+      <c r="D10">
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D11">
+        <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>8.08</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>7.84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
+        <v>8.08</v>
+      </c>
+      <c r="D13">
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>7.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+        <v>7.84</v>
+      </c>
+      <c r="D14">
+        <v>2013</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>6.62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
+        <v>7.37</v>
+      </c>
+      <c r="D15">
+        <v>2013</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="1">
-        <v>6.26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
+        <v>6.62</v>
+      </c>
+      <c r="D16">
+        <v>2013</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
       <c r="C17" s="1">
-        <v>6.03</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>6.26</v>
+      </c>
+      <c r="D17">
+        <v>2013</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>5.65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
+        <v>6.03</v>
+      </c>
+      <c r="D18">
+        <v>2013</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>5.64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+        <v>5.65</v>
+      </c>
+      <c r="D19">
+        <v>2013</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="D20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>5.58</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
+      <c r="D21">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
